--- a/Testdata/Testdata.xlsx
+++ b/Testdata/Testdata.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="CommonTestdata" sheetId="1" r:id="rId1"/>
     <sheet name="TestData" sheetId="3" r:id="rId2"/>
-    <sheet name="VerifyFeilds" sheetId="4" r:id="rId3"/>
-    <sheet name="DeleteStaff" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Sno</t>
   </si>
@@ -51,9 +49,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>http://server/bank/adminlogin.php</t>
-  </si>
-  <si>
     <t>TC_02_AddStaff</t>
   </si>
   <si>
@@ -96,38 +91,14 @@
     <t>developer</t>
   </si>
   <si>
-    <t>OldPassword</t>
-  </si>
-  <si>
-    <t>NewPassword</t>
-  </si>
-  <si>
-    <t>ReEnterPassword</t>
-  </si>
-  <si>
-    <t>TC_003_FieldsUnderChangePswd</t>
-  </si>
-  <si>
-    <t>TC_004_Edit_DeleteStaff</t>
-  </si>
-  <si>
-    <t>TC-ID</t>
-  </si>
-  <si>
-    <t>StaffMailid</t>
-  </si>
-  <si>
-    <t>umakanth</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
+    <t>http://automationpractice.com/index.php</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,15 +122,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +139,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -221,8 +179,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -496,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,13 +463,13 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
@@ -543,7 +499,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -657,28 +613,28 @@
         <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>4</v>
@@ -686,34 +642,34 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3">
         <v>34760</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3">
         <v>42494</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2">
         <v>8977064012</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -726,102 +682,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>